--- a/data_year/zb/农业/水产品产量.xlsx
+++ b/data_year/zb/农业/水产品产量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1157 +518,699 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>927.959376763</v>
+        <v>1482.3008</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.8806891639</v>
+        <v>2346.5</v>
       </c>
       <c r="D2" t="n">
-        <v>41.49</v>
+        <v>142.0939</v>
       </c>
       <c r="E2" t="n">
-        <v>27.6909</v>
+        <v>47.8944</v>
       </c>
       <c r="F2" t="n">
-        <v>1275.9486758639</v>
+        <v>1315.2304</v>
       </c>
       <c r="G2" t="n">
-        <v>193.4407948414</v>
+        <v>228.9369</v>
       </c>
       <c r="H2" t="n">
-        <v>3706.2295366322</v>
+        <v>5373</v>
       </c>
       <c r="I2" t="n">
-        <v>2203.9080526269</v>
+        <v>2797.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1502.3214840053</v>
+        <v>2575.5</v>
       </c>
       <c r="K2" t="n">
-        <v>106.0821</v>
+        <v>156.5958</v>
       </c>
       <c r="L2" t="n">
-        <v>257.9078</v>
+        <v>310.441</v>
       </c>
       <c r="M2" t="n">
-        <v>76.25369999999999</v>
+        <v>248.1348</v>
       </c>
       <c r="N2" t="n">
-        <v>901.6786</v>
+        <v>1170.4425</v>
       </c>
       <c r="O2" t="n">
-        <v>39.9939</v>
+        <v>53.7988</v>
       </c>
       <c r="P2" t="n">
-        <v>896.7492999999999</v>
+        <v>906.3222</v>
       </c>
       <c r="Q2" t="n">
-        <v>1358.3828</v>
+        <v>2225.6432</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>989.37507522787</v>
+        <v>1551.3292</v>
       </c>
       <c r="C3" t="n">
-        <v>1376.19968092929</v>
+        <v>2471.9338</v>
       </c>
       <c r="D3" t="n">
-        <v>44.5744</v>
+        <v>135.3241</v>
       </c>
       <c r="E3" t="n">
-        <v>23.4902</v>
+        <v>48.7899</v>
       </c>
       <c r="F3" t="n">
-        <v>1244.1244458016</v>
+        <v>1356.7195</v>
       </c>
       <c r="G3" t="n">
-        <v>186.225311136295</v>
+        <v>223.2265</v>
       </c>
       <c r="H3" t="n">
-        <v>3795.92451309505</v>
+        <v>5603.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2233.49952102947</v>
+        <v>2908.0487</v>
       </c>
       <c r="J3" t="n">
-        <v>1562.42499206558</v>
+        <v>2695.2</v>
       </c>
       <c r="K3" t="n">
-        <v>108.5178</v>
+        <v>162.9126</v>
       </c>
       <c r="L3" t="n">
-        <v>262.7553</v>
+        <v>321.8471</v>
       </c>
       <c r="M3" t="n">
-        <v>87.0227</v>
+        <v>248.8379</v>
       </c>
       <c r="N3" t="n">
-        <v>936.3579</v>
+        <v>1212.7704</v>
       </c>
       <c r="O3" t="n">
-        <v>45.408</v>
+        <v>53.8789</v>
       </c>
       <c r="P3" t="n">
-        <v>881.2939</v>
+        <v>1075.1945</v>
       </c>
       <c r="Q3" t="n">
-        <v>1406.5038</v>
+        <v>2343.6536</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1060.47004165985</v>
+        <v>1575.1986672481</v>
       </c>
       <c r="C4" t="n">
-        <v>1461.69014112044</v>
+        <v>2408.508846579</v>
       </c>
       <c r="D4" t="n">
-        <v>52.8116</v>
+        <v>142.7959</v>
       </c>
       <c r="E4" t="n">
-        <v>24.9283</v>
+        <v>53.9682</v>
       </c>
       <c r="F4" t="n">
-        <v>1237.98413981128</v>
+        <v>1314.4121602692</v>
       </c>
       <c r="G4" t="n">
-        <v>194.714115495269</v>
+        <v>204.0178087261</v>
       </c>
       <c r="H4" t="n">
-        <v>3954.85843808684</v>
+        <v>5502.1374828224</v>
       </c>
       <c r="I4" t="n">
-        <v>2298.45418147113</v>
+        <v>2889.6108275173</v>
       </c>
       <c r="J4" t="n">
-        <v>1656.4042566157</v>
+        <v>2612.5266553051</v>
       </c>
       <c r="K4" t="n">
-        <v>115.8124</v>
+        <v>179.0412</v>
       </c>
       <c r="L4" t="n">
-        <v>269.7546</v>
+        <v>345.6945</v>
       </c>
       <c r="M4" t="n">
-        <v>105.6771</v>
+        <v>268.694</v>
       </c>
       <c r="N4" t="n">
-        <v>972.1788</v>
+        <v>1264.7815</v>
       </c>
       <c r="O4" t="n">
-        <v>49.004</v>
+        <v>53.9551</v>
       </c>
       <c r="P4" t="n">
-        <v>887.8964999999999</v>
+        <v>957.2977275173</v>
       </c>
       <c r="Q4" t="n">
-        <v>1476.7947</v>
+        <v>2235.9093553051</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1095.85576655841</v>
+        <v>1664.6527931973</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.92464380249</v>
+        <v>2547.6937139471</v>
       </c>
       <c r="D5" t="n">
-        <v>94.0667</v>
+        <v>140.8934</v>
       </c>
       <c r="E5" t="n">
-        <v>26.5241</v>
+        <v>55.5163</v>
       </c>
       <c r="F5" t="n">
-        <v>1236.96507355691</v>
+        <v>1327.6992932521</v>
       </c>
       <c r="G5" t="n">
-        <v>213.276878496575</v>
+        <v>204.1741195431</v>
       </c>
       <c r="H5" t="n">
-        <v>4077.02236241439</v>
+        <v>5744.21991993958</v>
       </c>
       <c r="I5" t="n">
-        <v>2332.82084011532</v>
+        <v>2992.3520864494</v>
       </c>
       <c r="J5" t="n">
-        <v>1744.20152229906</v>
+        <v>2751.8678334902</v>
       </c>
       <c r="K5" t="n">
-        <v>122.7297</v>
+        <v>188.484</v>
       </c>
       <c r="L5" t="n">
-        <v>259.0092</v>
+        <v>362.5694</v>
       </c>
       <c r="M5" t="n">
-        <v>119.9203</v>
+        <v>277.0044</v>
       </c>
       <c r="N5" t="n">
-        <v>963.7716</v>
+        <v>1327.5593</v>
       </c>
       <c r="O5" t="n">
-        <v>46.7412</v>
+        <v>52.8028</v>
       </c>
       <c r="P5" t="n">
-        <v>893.2433</v>
+        <v>972.8459864494</v>
       </c>
       <c r="Q5" t="n">
-        <v>1551.0157</v>
+        <v>2366.5443334902</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1151.29077912498</v>
+        <v>1732.3986520989</v>
       </c>
       <c r="C6" t="n">
-        <v>1632.48986452413</v>
+        <v>2663.1737171338</v>
       </c>
       <c r="D6" t="n">
-        <v>152.9828</v>
+        <v>136.1829</v>
       </c>
       <c r="E6" t="n">
-        <v>29.0976</v>
+        <v>54.8003</v>
       </c>
       <c r="F6" t="n">
-        <v>1253.18377207986</v>
+        <v>1403.8545851076</v>
       </c>
       <c r="G6" t="n">
-        <v>209.604171304529</v>
+        <v>202.4888735328</v>
       </c>
       <c r="H6" t="n">
-        <v>4246.56858703349</v>
+        <v>6001.91582787316</v>
       </c>
       <c r="I6" t="n">
-        <v>2404.47455120484</v>
+        <v>3136.2532372065</v>
       </c>
       <c r="J6" t="n">
-        <v>1842.09403582866</v>
+        <v>2865.6625906666</v>
       </c>
       <c r="K6" t="n">
-        <v>130.7632</v>
+        <v>202.8875</v>
       </c>
       <c r="L6" t="n">
-        <v>271.3944</v>
+        <v>382.9462</v>
       </c>
       <c r="M6" t="n">
-        <v>132.4081</v>
+        <v>288.7397</v>
       </c>
       <c r="N6" t="n">
-        <v>965.5986</v>
+        <v>1371.7118</v>
       </c>
       <c r="O6" t="n">
-        <v>46.1461</v>
+        <v>51.4497</v>
       </c>
       <c r="P6" t="n">
-        <v>883.7352</v>
+        <v>1042.5248372065</v>
       </c>
       <c r="Q6" t="n">
-        <v>1634.442</v>
+        <v>2470.6728906666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1210.809096245</v>
+        <v>1796.5605427383</v>
       </c>
       <c r="C7" t="n">
-        <v>1733.0024170843</v>
+        <v>2779.3353022795</v>
       </c>
       <c r="D7" t="n">
-        <v>128.573</v>
+        <v>142.5153</v>
       </c>
       <c r="E7" t="n">
-        <v>30.1909</v>
+        <v>54.9441</v>
       </c>
       <c r="F7" t="n">
-        <v>1255.0837261134</v>
+        <v>1435.7341386053</v>
       </c>
       <c r="G7" t="n">
-        <v>220.9687746912</v>
+        <v>199.3350392209</v>
       </c>
       <c r="H7" t="n">
-        <v>4419.864014134</v>
+        <v>6210.96502284381</v>
       </c>
       <c r="I7" t="n">
-        <v>2465.8928223584</v>
+        <v>3232.2946813435</v>
       </c>
       <c r="J7" t="n">
-        <v>1953.9711917756</v>
+        <v>2978.6703415003</v>
       </c>
       <c r="K7" t="n">
-        <v>133.9359</v>
+        <v>211.4964</v>
       </c>
       <c r="L7" t="n">
-        <v>281.3047</v>
+        <v>386.2835</v>
       </c>
       <c r="M7" t="n">
-        <v>140.2787</v>
+        <v>300.1607</v>
       </c>
       <c r="N7" t="n">
-        <v>1008.1417</v>
+        <v>1413.9786</v>
       </c>
       <c r="O7" t="n">
-        <v>46.2925</v>
+        <v>51.6309</v>
       </c>
       <c r="P7" t="n">
-        <v>913.937324309</v>
+        <v>1078.0208813435</v>
       </c>
       <c r="Q7" t="n">
-        <v>1737.2089</v>
+        <v>2571.9346415003</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1264.16</v>
+        <v>1915.3079</v>
       </c>
       <c r="C8" t="n">
-        <v>1853.59</v>
+        <v>2877.8881</v>
       </c>
       <c r="D8" t="n">
-        <v>133.8154</v>
+        <v>145.8186</v>
       </c>
       <c r="E8" t="n">
-        <v>32.7788</v>
+        <v>55.8147</v>
       </c>
       <c r="F8" t="n">
-        <v>1245.4</v>
+        <v>1385.9541</v>
       </c>
       <c r="G8" t="n">
-        <v>220.3797556133</v>
+        <v>200.3333</v>
       </c>
       <c r="H8" t="n">
-        <v>4583.5997556133</v>
+        <v>6379.4834</v>
       </c>
       <c r="I8" t="n">
-        <v>2509.63</v>
+        <v>3301.262</v>
       </c>
       <c r="J8" t="n">
-        <v>2073.9697556133</v>
+        <v>3078.2214</v>
       </c>
       <c r="K8" t="n">
-        <v>137.6459</v>
+        <v>219.319</v>
       </c>
       <c r="L8" t="n">
-        <v>299.3761</v>
+        <v>396.0946</v>
       </c>
       <c r="M8" t="n">
-        <v>167.8085</v>
+        <v>316.1117</v>
       </c>
       <c r="N8" t="n">
-        <v>1046.7136</v>
+        <v>1476.88</v>
       </c>
       <c r="O8" t="n">
-        <v>50.9176</v>
+        <v>52.5257</v>
       </c>
       <c r="P8" t="n">
-        <v>892.0724</v>
+        <v>1063.1498</v>
       </c>
       <c r="Q8" t="n">
-        <v>1822.4685</v>
+        <v>2653.7693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1307.34</v>
+        <v>2000.6973</v>
       </c>
       <c r="C9" t="n">
-        <v>1970.9906</v>
+        <v>2905.293</v>
       </c>
       <c r="D9" t="n">
-        <v>153.7</v>
+        <v>129.0467</v>
       </c>
       <c r="E9" t="n">
-        <v>35.5</v>
+        <v>53.5841</v>
       </c>
       <c r="F9" t="n">
-        <v>1243.6</v>
+        <v>1321.0403</v>
       </c>
       <c r="G9" t="n">
-        <v>225.6416</v>
+        <v>218.2973</v>
       </c>
       <c r="H9" t="n">
-        <v>4747.5202</v>
+        <v>6445.3279</v>
       </c>
       <c r="I9" t="n">
-        <v>2550.888</v>
+        <v>3321.7376</v>
       </c>
       <c r="J9" t="n">
-        <v>2196.6322</v>
+        <v>3123.5903</v>
       </c>
       <c r="K9" t="n">
-        <v>138.8383</v>
+        <v>224.7814</v>
       </c>
       <c r="L9" t="n">
-        <v>298.941</v>
+        <v>370.7149</v>
       </c>
       <c r="M9" t="n">
-        <v>202.0724</v>
+        <v>320.7866</v>
       </c>
       <c r="N9" t="n">
-        <v>1068.1994</v>
+        <v>1481.4194</v>
       </c>
       <c r="O9" t="n">
-        <v>50.4973</v>
+        <v>46.6675</v>
       </c>
       <c r="P9" t="n">
-        <v>891.2794</v>
+        <v>1115.7752</v>
       </c>
       <c r="Q9" t="n">
-        <v>1908.4871</v>
+        <v>2702.5521</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1340.3236</v>
+        <v>2031.2206</v>
       </c>
       <c r="C10" t="n">
-        <v>2072.4977</v>
+        <v>2959.8384</v>
       </c>
       <c r="D10" t="n">
-        <v>122.1238</v>
+        <v>118.5217</v>
       </c>
       <c r="E10" t="n">
-        <v>38.7041</v>
+        <v>54.4183</v>
       </c>
       <c r="F10" t="n">
-        <v>1257.9579</v>
+        <v>1270.2097</v>
       </c>
       <c r="G10" t="n">
-        <v>224.8194</v>
+        <v>196.3871</v>
       </c>
       <c r="H10" t="n">
-        <v>4895.5986</v>
+        <v>6457.6558</v>
       </c>
       <c r="I10" t="n">
-        <v>2598.2815</v>
+        <v>3301.4303</v>
       </c>
       <c r="J10" t="n">
-        <v>2297.3171</v>
+        <v>3156.2255</v>
       </c>
       <c r="K10" t="n">
-        <v>142.2615</v>
+        <v>236.2157</v>
       </c>
       <c r="L10" t="n">
-        <v>288.7563</v>
+        <v>368.2409</v>
       </c>
       <c r="M10" t="n">
-        <v>210.065</v>
+        <v>369.6653</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.466</v>
+        <v>1486.9705</v>
       </c>
       <c r="O10" t="n">
-        <v>50.0899</v>
+        <v>40.7845</v>
       </c>
       <c r="P10" t="n">
-        <v>864.343</v>
+        <v>1091.4815</v>
       </c>
       <c r="Q10" t="n">
-        <v>1998.4581</v>
+        <v>2691.3574</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1405.222</v>
+        <v>2065.3287</v>
       </c>
       <c r="C11" t="n">
-        <v>2216.4606</v>
+        <v>3013.7441</v>
       </c>
       <c r="D11" t="n">
-        <v>130.9968</v>
+        <v>120.091</v>
       </c>
       <c r="E11" t="n">
-        <v>44.1604</v>
+        <v>55.4667</v>
       </c>
       <c r="F11" t="n">
-        <v>1276.3335</v>
+        <v>1217.1667</v>
       </c>
       <c r="G11" t="n">
-        <v>218.3878</v>
+        <v>184.1221</v>
       </c>
       <c r="H11" t="n">
-        <v>5116.4039</v>
+        <v>6480.3616</v>
       </c>
       <c r="I11" t="n">
-        <v>2681.5555</v>
+        <v>3282.4954</v>
       </c>
       <c r="J11" t="n">
-        <v>2434.8484</v>
+        <v>3197.8662</v>
       </c>
       <c r="K11" t="n">
-        <v>148.4067</v>
+        <v>255.5834</v>
       </c>
       <c r="L11" t="n">
-        <v>303.5863</v>
+        <v>366.1769</v>
       </c>
       <c r="M11" t="n">
-        <v>228.832</v>
+        <v>416.5334</v>
       </c>
       <c r="N11" t="n">
-        <v>1120.0207</v>
+        <v>1480.167</v>
       </c>
       <c r="O11" t="n">
-        <v>51.9572</v>
+        <v>39.4472</v>
       </c>
       <c r="P11" t="n">
-        <v>880.8224</v>
+        <v>1060.4771</v>
       </c>
       <c r="Q11" t="n">
-        <v>2109.8988</v>
+        <v>2686.4189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1482.3008</v>
+        <v>2135.3076</v>
       </c>
       <c r="C12" t="n">
-        <v>2346.5</v>
+        <v>3088.8912</v>
       </c>
       <c r="D12" t="n">
-        <v>142.0939</v>
+        <v>120.4229</v>
       </c>
       <c r="E12" t="n">
-        <v>47.8944</v>
+        <v>59.6324</v>
       </c>
       <c r="F12" t="n">
-        <v>1315.2304</v>
+        <v>1179.0678</v>
       </c>
       <c r="G12" t="n">
-        <v>228.9369</v>
+        <v>145.7503</v>
       </c>
       <c r="H12" t="n">
-        <v>5373.0024</v>
+        <v>6549.0169</v>
       </c>
       <c r="I12" t="n">
-        <v>2797.5312</v>
+        <v>3314.3754</v>
       </c>
       <c r="J12" t="n">
-        <v>2575.4712</v>
+        <v>3234.6415</v>
       </c>
       <c r="K12" t="n">
-        <v>156.5958</v>
+        <v>263.6875</v>
       </c>
       <c r="L12" t="n">
-        <v>310.441</v>
+        <v>358.5821</v>
       </c>
       <c r="M12" t="n">
-        <v>248.1348</v>
+        <v>441.9692</v>
       </c>
       <c r="N12" t="n">
-        <v>1170.4425</v>
+        <v>1516.2728</v>
       </c>
       <c r="O12" t="n">
-        <v>53.7988</v>
+        <v>35.7675</v>
       </c>
       <c r="P12" t="n">
-        <v>906.3222</v>
+        <v>1055.4101</v>
       </c>
       <c r="Q12" t="n">
-        <v>2225.6432</v>
+        <v>2697.2724</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1551.3292</v>
+        <v>2211.1374</v>
       </c>
       <c r="C13" t="n">
-        <v>2471.9338</v>
+        <v>3183.2676</v>
       </c>
       <c r="D13" t="n">
-        <v>135.3241</v>
+        <v>125.9365</v>
       </c>
       <c r="E13" t="n">
-        <v>48.7899</v>
+        <v>66.30240000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>1356.7195</v>
+        <v>1176.106</v>
       </c>
       <c r="G13" t="n">
-        <v>223.2265</v>
+        <v>119.7835</v>
       </c>
       <c r="H13" t="n">
-        <v>5603.209</v>
+        <v>6690.2945</v>
       </c>
       <c r="I13" t="n">
-        <v>2908.0487</v>
+        <v>3387.2434</v>
       </c>
       <c r="J13" t="n">
-        <v>2695.1603</v>
+        <v>3303.0511</v>
       </c>
       <c r="K13" t="n">
-        <v>162.9126</v>
+        <v>273.4886</v>
       </c>
       <c r="L13" t="n">
-        <v>321.8471</v>
+        <v>371.6334</v>
       </c>
       <c r="M13" t="n">
-        <v>248.8379</v>
+        <v>470.7267</v>
       </c>
       <c r="N13" t="n">
-        <v>1212.7704</v>
+        <v>1562.0069</v>
       </c>
       <c r="O13" t="n">
-        <v>53.8789</v>
+        <v>33.7134</v>
       </c>
       <c r="P13" t="n">
-        <v>1075.1945</v>
+        <v>1054.178</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.6536</v>
+        <v>2732.3086</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1575.1986672481</v>
+        <v>2283.0294</v>
       </c>
       <c r="C14" t="n">
-        <v>2408.508846579</v>
-      </c>
-      <c r="D14" t="n">
-        <v>142.7959</v>
-      </c>
-      <c r="E14" t="n">
-        <v>53.9682</v>
-      </c>
+        <v>3284.8592</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>1314.4121602692</v>
+        <v>1182.9076</v>
       </c>
       <c r="G14" t="n">
-        <v>204.0178087261</v>
+        <v>117.9833</v>
       </c>
       <c r="H14" t="n">
-        <v>5502.1374828224</v>
+        <v>6868.7795</v>
       </c>
       <c r="I14" t="n">
-        <v>2889.6108275173</v>
+        <v>3465.937</v>
       </c>
       <c r="J14" t="n">
-        <v>2612.5266553051</v>
-      </c>
-      <c r="K14" t="n">
-        <v>179.0412</v>
-      </c>
-      <c r="L14" t="n">
-        <v>345.6945</v>
-      </c>
-      <c r="M14" t="n">
-        <v>268.694</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1264.7815</v>
-      </c>
-      <c r="O14" t="n">
-        <v>53.9551</v>
-      </c>
-      <c r="P14" t="n">
-        <v>957.2977275173</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2235.9093553051</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1664.6527931973</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2547.6937139471</v>
-      </c>
-      <c r="D15" t="n">
-        <v>140.8934</v>
-      </c>
-      <c r="E15" t="n">
-        <v>55.5163</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1327.6992932521</v>
-      </c>
-      <c r="G15" t="n">
-        <v>204.1741195431</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5744.21991993958</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2992.3520864494</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2751.8678334902</v>
-      </c>
-      <c r="K15" t="n">
-        <v>188.484</v>
-      </c>
-      <c r="L15" t="n">
-        <v>362.5694</v>
-      </c>
-      <c r="M15" t="n">
-        <v>277.0044</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1327.5593</v>
-      </c>
-      <c r="O15" t="n">
-        <v>52.8028</v>
-      </c>
-      <c r="P15" t="n">
-        <v>972.8459864494</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2366.5443334902</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1732.3986520989</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2663.1737171338</v>
-      </c>
-      <c r="D16" t="n">
-        <v>136.1829</v>
-      </c>
-      <c r="E16" t="n">
-        <v>54.8003</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1403.8545851076</v>
-      </c>
-      <c r="G16" t="n">
-        <v>202.4888735328</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6001.91582787316</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3136.2532372065</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2865.6625906666</v>
-      </c>
-      <c r="K16" t="n">
-        <v>202.8875</v>
-      </c>
-      <c r="L16" t="n">
-        <v>382.9462</v>
-      </c>
-      <c r="M16" t="n">
-        <v>288.7397</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1371.7118</v>
-      </c>
-      <c r="O16" t="n">
-        <v>51.4497</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1042.5248372065</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2470.6728906666</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1796.5605427383</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2779.3353022795</v>
-      </c>
-      <c r="D17" t="n">
-        <v>142.5153</v>
-      </c>
-      <c r="E17" t="n">
-        <v>54.9441</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1435.7341386053</v>
-      </c>
-      <c r="G17" t="n">
-        <v>199.3350392209</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6210.96502284381</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3232.2946813435</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2978.6703415003</v>
-      </c>
-      <c r="K17" t="n">
-        <v>211.4964</v>
-      </c>
-      <c r="L17" t="n">
-        <v>386.2835</v>
-      </c>
-      <c r="M17" t="n">
-        <v>300.1607</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1413.9786</v>
-      </c>
-      <c r="O17" t="n">
-        <v>51.6309</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1078.0208813435</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2571.9346415003</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1915.3079</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2877.8881</v>
-      </c>
-      <c r="D18" t="n">
-        <v>145.8186</v>
-      </c>
-      <c r="E18" t="n">
-        <v>55.8147</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1385.9541</v>
-      </c>
-      <c r="G18" t="n">
-        <v>200.3333</v>
-      </c>
-      <c r="H18" t="n">
-        <v>6379.48</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3301.3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3078.2214</v>
-      </c>
-      <c r="K18" t="n">
-        <v>219.319</v>
-      </c>
-      <c r="L18" t="n">
-        <v>396.0946</v>
-      </c>
-      <c r="M18" t="n">
-        <v>316.1117</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1476.88</v>
-      </c>
-      <c r="O18" t="n">
-        <v>52.5257</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1063.1498</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2653.7693</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2000.6973</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2905.293</v>
-      </c>
-      <c r="D19" t="n">
-        <v>129.0467</v>
-      </c>
-      <c r="E19" t="n">
-        <v>53.5841</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1321.0403</v>
-      </c>
-      <c r="G19" t="n">
-        <v>218.2973</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6445.3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3321.7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3123.5903</v>
-      </c>
-      <c r="K19" t="n">
-        <v>224.7814</v>
-      </c>
-      <c r="L19" t="n">
-        <v>370.7149</v>
-      </c>
-      <c r="M19" t="n">
-        <v>320.7866</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1481.4194</v>
-      </c>
-      <c r="O19" t="n">
-        <v>46.6675</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1115.7752</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2702.5521</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2031.2206</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2959.8384</v>
-      </c>
-      <c r="D20" t="n">
-        <v>118.5217</v>
-      </c>
-      <c r="E20" t="n">
-        <v>54.4183</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1270.2097</v>
-      </c>
-      <c r="G20" t="n">
-        <v>196.3871</v>
-      </c>
-      <c r="H20" t="n">
-        <v>6457.6558</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3301.4303</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3156.2255</v>
-      </c>
-      <c r="K20" t="n">
-        <v>236.2157</v>
-      </c>
-      <c r="L20" t="n">
-        <v>368.2409</v>
-      </c>
-      <c r="M20" t="n">
-        <v>369.6653</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1486.9705</v>
-      </c>
-      <c r="O20" t="n">
-        <v>40.7845</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1091.4815</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2691.3574</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2065.3287</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3013.7441</v>
-      </c>
-      <c r="D21" t="n">
-        <v>120.091</v>
-      </c>
-      <c r="E21" t="n">
-        <v>55.4667</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1217.1667</v>
-      </c>
-      <c r="G21" t="n">
-        <v>184.1221</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6480.3616</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3282.4954</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3197.8662</v>
-      </c>
-      <c r="K21" t="n">
-        <v>255.5834</v>
-      </c>
-      <c r="L21" t="n">
-        <v>366.1769</v>
-      </c>
-      <c r="M21" t="n">
-        <v>416.5334</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1480.167</v>
-      </c>
-      <c r="O21" t="n">
-        <v>39.4472</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1060.4771</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2686.4189</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2135.3076</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3088.8912</v>
-      </c>
-      <c r="D22" t="n">
-        <v>120.4229</v>
-      </c>
-      <c r="E22" t="n">
-        <v>59.6324</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1179.0678</v>
-      </c>
-      <c r="G22" t="n">
-        <v>145.7503</v>
-      </c>
-      <c r="H22" t="n">
-        <v>6549.0169</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3314.3754</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3234.6415</v>
-      </c>
-      <c r="K22" t="n">
-        <v>263.6875</v>
-      </c>
-      <c r="L22" t="n">
-        <v>358.5821</v>
-      </c>
-      <c r="M22" t="n">
-        <v>441.9692</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1516.2728</v>
-      </c>
-      <c r="O22" t="n">
-        <v>35.7675</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1055.4101</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2697.2724</v>
-      </c>
+        <v>3402.8425</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
